--- a/SP_Sklad/TempLate/DynamicsSsales.xlsx
+++ b/SP_Sklad/TempLate/DynamicsSsales.xlsx
@@ -14,8 +14,8 @@
     <definedName name="MatList">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="WbList">Лист1!$A$10:$G$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
+    <definedName name="WbList">Лист1!$A$9:$G$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,30 +252,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
         <color indexed="23"/>
       </top>
@@ -293,19 +269,6 @@
         <color indexed="55"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -329,22 +292,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="55"/>
+      <left style="hair">
+        <color indexed="23"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -352,11 +310,9 @@
       <left style="hair">
         <color indexed="23"/>
       </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
+      <right/>
       <top style="hair">
-        <color indexed="55"/>
+        <color indexed="23"/>
       </top>
       <bottom style="hair">
         <color indexed="23"/>
@@ -368,21 +324,8 @@
       <right style="hair">
         <color indexed="23"/>
       </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
+      <top style="hair">
+        <color indexed="23"/>
       </top>
       <bottom style="hair">
         <color indexed="23"/>
@@ -393,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,50 +375,41 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,10 +781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -867,14 +801,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="27" customHeight="1">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" ht="12.75" customHeight="1">
       <c r="B2" s="1"/>
@@ -924,89 +858,89 @@
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B9" s="31">
+    <row r="8" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="15">
+      <c r="C8" s="27"/>
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F8" s="15">
         <v>4</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G8" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B10" s="22" t="e">
+    <row r="9" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B9" s="28" t="e">
         <f>WbList_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18" t="e">
+      <c r="C9" s="29"/>
+      <c r="D9" s="18" t="e">
         <f>WbList_SummOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="18" t="e">
+      <c r="E9" s="18" t="e">
         <f>WbList_SummIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="18" t="e">
+      <c r="F9" s="18" t="e">
         <f>WbList_Income</f>
         <v>#NAME?</v>
       </c>
-      <c r="G10" s="19" t="e">
-        <f>F10/(D10-E10-F10)</f>
+      <c r="G9" s="19" t="e">
+        <f>F9/(D9-E9-F9)</f>
         <v>#NAME?</v>
       </c>
     </row>
+    <row r="10" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="12.75" customHeight="1">
       <c r="B12" s="4"/>
@@ -1017,31 +951,19 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="5">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/SP_Sklad/TempLate/DynamicsSsales.xlsx
+++ b/SP_Sklad/TempLate/DynamicsSsales.xlsx
@@ -30,15 +30,6 @@
     <t>Період:</t>
   </si>
   <si>
-    <t>Прибуток</t>
-  </si>
-  <si>
-    <t>Повернення</t>
-  </si>
-  <si>
-    <t>Відгрузка</t>
-  </si>
-  <si>
     <t>Контрагент:</t>
   </si>
   <si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Прибутокб грн.</t>
+  </si>
+  <si>
+    <t>Відгрузка, грн.</t>
+  </si>
+  <si>
+    <t>Повернення, грн.</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -802,7 +802,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="27" customHeight="1">
       <c r="B1" s="23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -833,7 +833,7 @@
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1">
       <c r="B4" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="14" t="e">
         <f>XLRPARAMS_MatId</f>
@@ -846,7 +846,7 @@
     </row>
     <row r="5" spans="2:7" ht="13.5" customHeight="1">
       <c r="B5" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="17" t="e">
         <f>XLRPARAMS_KAID</f>
@@ -859,20 +859,20 @@
     </row>
     <row r="7" spans="2:7" ht="26.25" customHeight="1">
       <c r="B7" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1">
@@ -904,7 +904,7 @@
         <v>#NAME?</v>
       </c>
       <c r="E9" s="18" t="e">
-        <f>WbList_SummIn</f>
+        <f>WbList_ReturnSumm</f>
         <v>#NAME?</v>
       </c>
       <c r="F9" s="18" t="e">
@@ -918,7 +918,7 @@
     </row>
     <row r="10" spans="2:7" ht="12.75" customHeight="1">
       <c r="B10" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="16" t="s">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1">
